--- a/uipath/stockprice/prestige/stockprice/prestige.xlsx
+++ b/uipath/stockprice/prestige/stockprice/prestige.xlsx
@@ -5,15 +5,26 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\FundManagementUIPath V2\stockprice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\UiPath\stockprice\prestige\stockprice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C084E-6372-4444-B6C3-305DA238C087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45980E3-B4D4-45A8-B17C-788D409740EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="1830" windowWidth="14400" windowHeight="8860" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="1390" windowWidth="14400" windowHeight="8860" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="prestige ticker" sheetId="4" r:id="rId1"/>
+    <sheet name="%5ESTI%3FP%3D%5ESTI" sheetId="15" r:id="rId1"/>
+    <sheet name="C31.SI" sheetId="14" r:id="rId2"/>
+    <sheet name="C52.SI" sheetId="13" r:id="rId3"/>
+    <sheet name="V03.SI" sheetId="12" r:id="rId4"/>
+    <sheet name="T39.SI" sheetId="11" r:id="rId5"/>
+    <sheet name="C6L.SI" sheetId="10" r:id="rId6"/>
+    <sheet name="CC3.SI" sheetId="9" r:id="rId7"/>
+    <sheet name="O39.SI" sheetId="8" r:id="rId8"/>
+    <sheet name="U11.SI" sheetId="7" r:id="rId9"/>
+    <sheet name="Z74.SI" sheetId="6" r:id="rId10"/>
+    <sheet name="D05.SI" sheetId="5" r:id="rId11"/>
+    <sheet name="prestige ticker" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>UOB</t>
   </si>
@@ -105,6 +116,12 @@
   </si>
   <si>
     <t>%5ESTI%3FP%3D%5ESTI</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>adjclose</t>
   </si>
 </sst>
 </file>
@@ -219,7 +236,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -234,6 +251,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -805,10 +828,2461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C18DDC-9305-4471-A3B7-501D38BB6825}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2484.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2529.8200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2573.4499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2582.9699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2575.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2579.5100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2612.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2594.5300000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2629.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2616.3000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2618.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2623.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2648.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2620.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2631.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2652.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2669.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2661.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2689.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2652.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2636.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2610.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2589.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2574.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2604.5100000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2590.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2628.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2634.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2629.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2634.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2665.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2669.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2666.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2613.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2684.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2704.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2800.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2794.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2796.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2751.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2707.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2700.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2611.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2550.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2510.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2515.2399999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48" s="6">
+        <v>2519.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2530.3000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B50" s="6">
+        <v>2499.83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2555.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2561.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2581.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2539.2800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2523.5500000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2522.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2572.0100000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2587.81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="6">
+        <v>2611.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2591.88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2591.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B62" s="6">
+        <v>2572.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B63" s="6">
+        <v>2563.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B64" s="6">
+        <v>2624.23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2574.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B66" s="6">
+        <v>2562.9499999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B67" s="6">
+        <v>2549.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2518.16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2542.37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2550.04</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2551.92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2597.85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2614.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B74" s="6">
+        <v>2612.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2605.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2634.57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B77" s="6">
+        <v>2567.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B78" s="6">
+        <v>2571.3200000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B79" s="6">
+        <v>2539.44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2571.89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B81" s="6">
+        <v>2470.59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B82" s="6">
+        <v>2389.29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2453.0300000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B84" s="6">
+        <v>2440.27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B85" s="6">
+        <v>2481.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2416.2399999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2528.7600000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B88" s="6">
+        <v>2487.56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B89" s="6">
+        <v>2505.4699999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B90" s="6">
+        <v>2362.0500000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B91" s="6">
+        <v>2233.48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B92" s="6">
+        <v>2410.7399999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B93" s="6">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B94" s="6">
+        <v>2425.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B95" s="6">
+        <v>2454.5300000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B96" s="6">
+        <v>2495.77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B98" s="6">
+        <v>2678.64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B100" s="6">
+        <v>2832.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B101" s="6">
+        <v>2782.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A74C39B-D84C-4D10-A676-D8CD679E8FB9}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B49">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B50">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B51">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B52">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B53">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B54">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B55">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B56">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B57">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B58">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B59">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B60">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B61">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B62">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B63">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B64">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B65">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B66">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B67">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B68">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B69">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B70">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B71">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B72">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B73">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B74">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B75">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B76">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B77">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B78">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B79">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B80">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B81">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B82">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B83">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B84">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B85">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B86">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B87">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B88">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B89">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B90">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B91">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B92">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B93">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B94">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B95">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B96">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B97">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B98">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B99">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B100">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B101">
+        <v>2.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D0F49F-9E09-4C27-85BD-FEDD175DC9E0}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>21.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46">
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B49">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B50">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B51">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B52">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B53">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B54">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B56">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B57">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B58">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B60">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B61">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B62">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B63">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B65">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B66">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B67">
+        <v>18.760000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B68">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B69">
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B70">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B71">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B72">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B73">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B74">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B75">
+        <v>19.059999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B79">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B80">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B81">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B83">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B84">
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B85">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B86">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B87">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B88">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B89">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B90">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B91">
+        <v>18.760000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B92">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B93">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B94">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B95">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B96">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B97">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B98">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B99">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B100">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B101">
+        <v>20.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45866828-7110-4941-9DD6-E0C568353D58}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -919,4 +3393,6542 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2214F99B-E7F3-4300-B6E0-3EDDC0CA0CD6}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B21">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B22">
+        <v>2.9207999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B23">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B24">
+        <v>2.8054999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B25">
+        <v>2.8054999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B26">
+        <v>2.7286000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B27">
+        <v>2.7477999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B28">
+        <v>2.7477999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B29">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B30">
+        <v>2.8054999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B31">
+        <v>2.7959000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B32">
+        <v>2.8151000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B33">
+        <v>2.8534999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B34">
+        <v>2.9016000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B35">
+        <v>2.9112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B36">
+        <v>2.8439000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B37">
+        <v>2.8824000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B38">
+        <v>2.9016000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B39">
+        <v>3.0360999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B40">
+        <v>3.0360999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B41">
+        <v>3.0745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B42">
+        <v>3.0457000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B43">
+        <v>3.0169000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B44">
+        <v>3.0745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B45">
+        <v>3.0169000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B46">
+        <v>2.8534999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B47">
+        <v>2.7766999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B48">
+        <v>2.7766999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B49">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B50">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B51">
+        <v>2.7574999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B52">
+        <v>2.7959000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B53">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B54">
+        <v>2.8247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B55">
+        <v>2.7574999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B56">
+        <v>2.7189999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B57">
+        <v>2.7094</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B58">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B59">
+        <v>2.8054999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B60">
+        <v>2.8342999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B61">
+        <v>2.8151000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B62">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B63">
+        <v>2.7671000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B65">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B66">
+        <v>2.8534999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B67">
+        <v>2.8054999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B68">
+        <v>2.7671000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B69">
+        <v>2.7094</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B70">
+        <v>2.7286000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B71">
+        <v>2.7189999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B72">
+        <v>2.7574999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B73">
+        <v>2.8439000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B74">
+        <v>2.8631000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B75">
+        <v>2.8534999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>2.8151000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <v>2.8631000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>2.8054999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B79">
+        <v>2.8342999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B80">
+        <v>2.7959000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B81">
+        <v>2.8534999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B82">
+        <v>2.6324999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B83">
+        <v>2.5173000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B84">
+        <v>2.6036999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B85">
+        <v>2.6518000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B86">
+        <v>2.7382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B87">
+        <v>2.6518000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B88">
+        <v>2.8342999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B89">
+        <v>2.7863000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B90">
+        <v>2.8151000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B91">
+        <v>2.6133000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B92">
+        <v>2.4691999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B93">
+        <v>2.6901999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B94">
+        <v>2.5556999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B95">
+        <v>2.7959000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B96">
+        <v>2.7959000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B97">
+        <v>2.8824000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B98">
+        <v>3.0265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B99">
+        <v>3.0745</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B100">
+        <v>3.2378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B101">
+        <v>3.3147000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175CB2A-3F08-4AF9-8D7A-6541E4064452}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B47">
+        <v>1.3871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B48">
+        <v>1.4449000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B49">
+        <v>1.4738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B50">
+        <v>1.4738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B51">
+        <v>1.4834000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B52">
+        <v>1.5316000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B53">
+        <v>1.4931000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B54">
+        <v>1.5026999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B55">
+        <v>1.4544999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B56">
+        <v>1.4064000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B57">
+        <v>1.4449000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B58">
+        <v>1.4834000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B59">
+        <v>1.5411999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B60">
+        <v>1.5411999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B61">
+        <v>1.5316000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B62">
+        <v>1.5316000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B63">
+        <v>1.5026999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>1.4931000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B66">
+        <v>1.5384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B67">
+        <v>1.4452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B68">
+        <v>1.4452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B69">
+        <v>1.3613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B70">
+        <v>1.3332999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B71">
+        <v>1.3426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B72">
+        <v>1.3798999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B73">
+        <v>1.3986000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B74">
+        <v>1.4172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B75">
+        <v>1.4172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B76">
+        <v>1.4265000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B77">
+        <v>1.4172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B78">
+        <v>1.4638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B79">
+        <v>1.4078999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B80">
+        <v>1.3986000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B81">
+        <v>1.3798999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B82">
+        <v>1.4172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B83">
+        <v>1.3147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B84">
+        <v>1.3332999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B85">
+        <v>1.3706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B86">
+        <v>1.3706</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B87">
+        <v>1.4172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B88">
+        <v>1.3798999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B89">
+        <v>1.4452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B90">
+        <v>1.4078999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B91">
+        <v>1.4265000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B92">
+        <v>1.3706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B93">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B94">
+        <v>1.3613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B95">
+        <v>1.3426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B96">
+        <v>1.4732000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B97">
+        <v>1.4732000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B98">
+        <v>1.4918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B99">
+        <v>1.5944</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B100">
+        <v>1.6316999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B101">
+        <v>1.6969000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9275F5-18DC-41FA-B43E-C5F46FABD55D}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B42">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B43">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B44">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B45">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B46">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B47">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B48">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B49">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B50">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B51">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B52">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B53">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B54">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B55">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B56">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B57">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B58">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B59">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B61">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B62">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B63">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B64">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B65">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B66">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B67">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B68">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B69">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B70">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B71">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B72">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B73">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B74">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B75">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B76">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B77">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B78">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B79">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B80">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B81">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B82">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B83">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B84">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B85">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B86">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B87">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B88">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B89">
+        <v>13.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B90">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B91">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B92">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B93">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B94">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B95">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B96">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B97">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B98">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B99">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B100">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B101">
+        <v>15.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5918EF-22EA-49C6-9E21-84FCC67B5FD9}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B49">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B50">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B51">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B53">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B54">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B55">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B56">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B57">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B58">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B59">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B60">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B61">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B62">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B65">
+        <v>1.5045999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B66">
+        <v>1.5045999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B67">
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B68">
+        <v>1.4749000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B69">
+        <v>1.4353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B70">
+        <v>1.3956999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B71">
+        <v>1.4155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B72">
+        <v>1.4155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B73">
+        <v>1.4847999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B74">
+        <v>1.5145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B75">
+        <v>1.5045999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>1.5045999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <v>1.5045999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>1.4946999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B79">
+        <v>1.5244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B80">
+        <v>1.5145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B81">
+        <v>1.5838000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B82">
+        <v>1.5343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B83">
+        <v>1.5640000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B84">
+        <v>1.6432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B85">
+        <v>1.762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B86">
+        <v>1.8115000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B87">
+        <v>1.7521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B88">
+        <v>1.8115000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B89">
+        <v>1.7917000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B90">
+        <v>1.7223999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B91">
+        <v>1.6729000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B92">
+        <v>1.6333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B93">
+        <v>1.7917000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B94">
+        <v>1.8016000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B95">
+        <v>1.7917000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B96">
+        <v>1.7917000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B97">
+        <v>1.7719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B98">
+        <v>1.8609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B99">
+        <v>1.8906000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B100">
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B101">
+        <v>1.851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC94BE6-C402-448F-A880-79E48C5A042E}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B49">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B50">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B51">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B52">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B53">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B54">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B55">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B56">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B58">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B59">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B60">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B61">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B62">
+        <v>4.1639999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B63">
+        <v>4.1921999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B64">
+        <v>4.3048999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B65">
+        <v>4.2907999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B66">
+        <v>4.2344999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B67">
+        <v>4.2907999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B68">
+        <v>4.2556000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B69">
+        <v>4.3259999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B70">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B71">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B72">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B73">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B74">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B75">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B76">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B77">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B78">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B79">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B80">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B81">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B82">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B83">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B84">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B85">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B86">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B87">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B88">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B89">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B90">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B91">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B92">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B93">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B94">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B95">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B96">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B97">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B98">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B99">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B100">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B101">
+        <v>7.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689700E1-C502-4B94-A535-2882F5118C0E}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B50">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B51">
+        <v>1.3676999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B52">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B53">
+        <v>1.3873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B54">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B55">
+        <v>1.3676999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B56">
+        <v>1.3676999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B57">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B58">
+        <v>1.3873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B59">
+        <v>1.3873</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B60">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B61">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B62">
+        <v>1.4661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B63">
+        <v>1.4365000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>1.4267000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B65">
+        <v>1.4661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B66">
+        <v>1.4267000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B67">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B68">
+        <v>1.4267000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B69">
+        <v>1.3972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B70">
+        <v>1.3577999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B71">
+        <v>1.3577999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B72">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B73">
+        <v>1.3972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B74">
+        <v>1.4169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B75">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>1.3972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>1.3774999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B79">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B80">
+        <v>1.4267000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B81">
+        <v>1.4463999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B82">
+        <v>1.3480000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B83">
+        <v>1.3086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B84">
+        <v>1.3480000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B85">
+        <v>1.3086</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B86">
+        <v>1.3086</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B87">
+        <v>1.2888999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B88">
+        <v>1.2790999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B89">
+        <v>1.2988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B90">
+        <v>1.2496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B91">
+        <v>1.1807000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B92">
+        <v>1.1315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B93">
+        <v>1.2101999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B94">
+        <v>1.1117999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B95">
+        <v>1.2496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B96">
+        <v>1.2496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B97">
+        <v>1.2888999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B98">
+        <v>1.3676999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B99">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B100">
+        <v>1.4267000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B101">
+        <v>1.4759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BD2CAE-897C-4780-A35C-524978106FA3}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B36">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B37">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B38">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B39">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B40">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B41">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B42">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B43">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B45">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B46">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B48">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B49">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B50">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B52">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B53">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B54">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B55">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B56">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B57">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B58">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B59">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B60">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B61">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B62">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B63">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B65">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B66">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B67">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B68">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B69">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B70">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B71">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B72">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B73">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B74">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B75">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B77">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B79">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B80">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B81">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B82">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B83">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B84">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B85">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B86">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B87">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B88">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B89">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B90">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B91">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B92">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B93">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B94">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B95">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B96">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B97">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B98">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B99">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B100">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B101">
+        <v>9.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA091F97-7CC1-486C-B69E-3EEC5C0A3062}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B2">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B3">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B4">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B5">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B6">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B7">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B8">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B9">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44033</v>
+      </c>
+      <c r="B10">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="B11">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B12">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>44028</v>
+      </c>
+      <c r="B13">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B14">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>44026</v>
+      </c>
+      <c r="B15">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>44025</v>
+      </c>
+      <c r="B16">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>44021</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>44020</v>
+      </c>
+      <c r="B18">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>44019</v>
+      </c>
+      <c r="B19">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B20">
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B21">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B22">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B23">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>44012</v>
+      </c>
+      <c r="B24">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>44011</v>
+      </c>
+      <c r="B25">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B26">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B27">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>44006</v>
+      </c>
+      <c r="B28">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>44005</v>
+      </c>
+      <c r="B29">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>44004</v>
+      </c>
+      <c r="B30">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B31">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="B32">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>43999</v>
+      </c>
+      <c r="B33">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>43998</v>
+      </c>
+      <c r="B34">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B35">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B37">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B38">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>43992</v>
+      </c>
+      <c r="B39">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B40">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>43990</v>
+      </c>
+      <c r="B41">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B42">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B43">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B44">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B45">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B46">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B47">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B48">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B49">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B50">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B51">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B52">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B53">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B54">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B55">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B56">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B57">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B58">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B59">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B60">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B62">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B63">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B64">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B65">
+        <v>19.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B66">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B67">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B68">
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B69">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B70">
+        <v>19.190000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>43944</v>
+      </c>
+      <c r="B71">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43943</v>
+      </c>
+      <c r="B72">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B73">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>43941</v>
+      </c>
+      <c r="B74">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>43938</v>
+      </c>
+      <c r="B75">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>43937</v>
+      </c>
+      <c r="B76">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B77">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B78">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>43934</v>
+      </c>
+      <c r="B79">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B80">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B81">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B82">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B83">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B84">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>43923</v>
+      </c>
+      <c r="B85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B86">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>43921</v>
+      </c>
+      <c r="B87">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B88">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B89">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>43916</v>
+      </c>
+      <c r="B90">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>43915</v>
+      </c>
+      <c r="B91">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>43914</v>
+      </c>
+      <c r="B92">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43913</v>
+      </c>
+      <c r="B93">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B94">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>43908</v>
+      </c>
+      <c r="B96">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B97">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>43906</v>
+      </c>
+      <c r="B98">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B99">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B100">
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B101">
+        <v>20.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uipath/stockprice/prestige/stockprice/prestige.xlsx
+++ b/uipath/stockprice/prestige/stockprice/prestige.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\UiPath\stockprice\prestige\stockprice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\fundfactsheet\Fund-Management-Application\uipath\stockprice\prestige\stockprice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45980E3-B4D4-45A8-B17C-788D409740EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B1B7A-DB93-4930-B361-B4F93D59DB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4070" yWindow="1390" windowWidth="14400" windowHeight="8860" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="1390" windowWidth="14400" windowHeight="8860" tabRatio="696" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="%5ESTI%3FP%3D%5ESTI" sheetId="15" r:id="rId1"/>
@@ -829,13 +829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C18DDC-9305-4471-A3B7-501D38BB6825}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -843,15 +843,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2" s="6">
         <v>2484.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-1.7752251148303162E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -859,7 +863,7 @@
         <v>2529.8200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -867,7 +871,7 @@
         <v>2573.4499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -875,7 +879,7 @@
         <v>2582.9699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -883,7 +887,7 @@
         <v>2575.79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -891,7 +895,7 @@
         <v>2579.5100000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -899,7 +903,7 @@
         <v>2612.35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -907,7 +911,7 @@
         <v>2594.5300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -915,7 +919,7 @@
         <v>2629.45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -923,7 +927,7 @@
         <v>2616.3000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -931,7 +935,7 @@
         <v>2618.48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -939,7 +943,7 @@
         <v>2623.67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -947,7 +951,7 @@
         <v>2648.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -955,7 +959,7 @@
         <v>2620.19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -1644,13 +1648,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A74C39B-D84C-4D10-A676-D8CD679E8FB9}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1658,15 +1662,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-1.2096774193548309E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -1682,7 +1690,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -1706,7 +1714,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -1730,7 +1738,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -1746,7 +1754,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -2465,13 +2473,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D0F49F-9E09-4C27-85BD-FEDD175DC9E0}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2479,15 +2487,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>19.45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-1.6186140617096625E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -2495,7 +2507,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -2503,7 +2515,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -2535,7 +2547,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -2543,7 +2555,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -2559,7 +2571,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -3397,13 +3409,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2214F99B-E7F3-4300-B6E0-3EDDC0CA0CD6}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3411,15 +3423,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-1.8115942028985445E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -3427,7 +3443,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -3435,7 +3451,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -3443,7 +3459,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -3451,7 +3467,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -3459,7 +3475,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -3467,7 +3483,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -3475,7 +3491,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -3483,7 +3499,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -3491,7 +3507,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -3499,7 +3515,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -3507,7 +3523,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -3515,7 +3531,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -3523,7 +3539,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -4215,13 +4231,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175CB2A-3F08-4AF9-8D7A-6541E4064452}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4229,15 +4245,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-2.2058823529411783E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -4245,7 +4265,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -4253,7 +4273,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -4269,7 +4289,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -4277,7 +4297,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -4285,7 +4305,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -4293,7 +4313,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -4301,7 +4321,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -4317,7 +4337,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -4325,7 +4345,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -4333,7 +4353,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -4341,7 +4361,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -5030,13 +5050,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9275F5-18DC-41FA-B43E-C5F46FABD55D}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5044,15 +5064,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>18.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>8.3798882681565441E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -5060,7 +5084,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -5068,7 +5092,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -5076,7 +5100,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -5084,7 +5108,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -5092,7 +5116,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -5100,7 +5124,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -5108,7 +5132,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -5116,7 +5140,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -5124,7 +5148,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -5132,7 +5156,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -5140,7 +5164,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -5148,7 +5172,7 @@
         <v>16.86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -5156,7 +5180,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -5845,13 +5869,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5918EF-22EA-49C6-9E21-84FCC67B5FD9}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5859,15 +5883,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-1.8691588785046745E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -5875,7 +5903,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -5883,7 +5911,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -5891,7 +5919,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -5899,7 +5927,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -5907,7 +5935,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -5915,7 +5943,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -5923,7 +5951,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -5931,7 +5959,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -5939,7 +5967,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -5947,7 +5975,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -5955,7 +5983,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -5963,7 +5991,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -5971,7 +5999,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -6663,13 +6691,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC94BE6-C402-448F-A880-79E48C5A042E}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6677,15 +6705,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-3.2163742690058443E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -6693,7 +6725,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -6701,7 +6733,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -6709,7 +6741,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -6717,7 +6749,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -6725,7 +6757,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -6733,7 +6765,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -6741,7 +6773,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -6749,7 +6781,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -6757,7 +6789,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -6765,7 +6797,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -6773,7 +6805,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -6781,7 +6813,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -6789,7 +6821,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -7484,13 +7516,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689700E1-C502-4B94-A535-2882F5118C0E}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -7498,15 +7530,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-8.1967213114754172E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -7514,7 +7550,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -7522,7 +7558,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -7530,7 +7566,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -7538,7 +7574,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -7546,7 +7582,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -7554,7 +7590,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -7562,7 +7598,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -7570,7 +7606,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -7578,7 +7614,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -7586,7 +7622,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -7594,7 +7630,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -7602,7 +7638,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -7610,7 +7646,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -8302,13 +8338,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BD2CAE-897C-4780-A35C-524978106FA3}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -8316,15 +8352,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>8.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-4.6728971962617903E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -8332,7 +8372,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -8340,7 +8380,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -8348,7 +8388,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -8356,7 +8396,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -8364,7 +8404,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -8372,7 +8412,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -8380,7 +8420,7 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -8388,7 +8428,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -8396,7 +8436,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -8404,7 +8444,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -8412,7 +8452,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -8420,7 +8460,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -8428,7 +8468,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -9120,13 +9160,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA091F97-7CC1-486C-B69E-3EEC5C0A3062}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9134,15 +9174,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>19.07</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>(B2-B3)/B3</f>
+        <v>-1.650335224342446E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -9150,7 +9194,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -9158,7 +9202,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -9166,7 +9210,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -9174,7 +9218,7 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -9182,7 +9226,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -9190,7 +9234,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -9198,7 +9242,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -9206,7 +9250,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -9214,7 +9258,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -9222,7 +9266,7 @@
         <v>20.56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -9230,7 +9274,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -9238,7 +9282,7 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -9246,7 +9290,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>

--- a/uipath/stockprice/prestige/stockprice/prestige.xlsx
+++ b/uipath/stockprice/prestige/stockprice/prestige.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\fundfactsheet\Fund-Management-Application\uipath\stockprice\prestige\stockprice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\UiPath\stockprice\prestige\stockprice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B1B7A-DB93-4930-B361-B4F93D59DB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45980E3-B4D4-45A8-B17C-788D409740EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4070" yWindow="1390" windowWidth="14400" windowHeight="8860" tabRatio="696" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="1390" windowWidth="14400" windowHeight="8860" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="%5ESTI%3FP%3D%5ESTI" sheetId="15" r:id="rId1"/>
@@ -829,13 +829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C18DDC-9305-4471-A3B7-501D38BB6825}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -843,19 +843,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2" s="6">
         <v>2484.91</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-1.7752251148303162E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -863,7 +859,7 @@
         <v>2529.8200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -871,7 +867,7 @@
         <v>2573.4499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -879,7 +875,7 @@
         <v>2582.9699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -887,7 +883,7 @@
         <v>2575.79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -895,7 +891,7 @@
         <v>2579.5100000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -903,7 +899,7 @@
         <v>2612.35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -911,7 +907,7 @@
         <v>2594.5300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -919,7 +915,7 @@
         <v>2629.45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -927,7 +923,7 @@
         <v>2616.3000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -935,7 +931,7 @@
         <v>2618.48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -943,7 +939,7 @@
         <v>2623.67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -951,7 +947,7 @@
         <v>2648.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -959,7 +955,7 @@
         <v>2620.19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -1648,13 +1644,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A74C39B-D84C-4D10-A676-D8CD679E8FB9}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1662,19 +1658,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-1.2096774193548309E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -1682,7 +1674,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -1690,7 +1682,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -1698,7 +1690,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -1706,7 +1698,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -1714,7 +1706,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -1722,7 +1714,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -1730,7 +1722,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -1738,7 +1730,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -1746,7 +1738,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -1762,7 +1754,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -1770,7 +1762,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -1778,7 +1770,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -2473,13 +2465,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D0F49F-9E09-4C27-85BD-FEDD175DC9E0}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2487,19 +2479,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>19.45</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-1.6186140617096625E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -2507,7 +2495,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -2515,7 +2503,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -2523,7 +2511,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -2531,7 +2519,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -2539,7 +2527,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -2547,7 +2535,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -2555,7 +2543,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -2563,7 +2551,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -2571,7 +2559,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -2579,7 +2567,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -2587,7 +2575,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -2595,7 +2583,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -2603,7 +2591,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -3409,13 +3397,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2214F99B-E7F3-4300-B6E0-3EDDC0CA0CD6}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3423,19 +3411,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>2.71</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-1.8115942028985445E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -3443,7 +3427,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -3451,7 +3435,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -3459,7 +3443,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -3467,7 +3451,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -3475,7 +3459,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -3483,7 +3467,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -3491,7 +3475,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -3499,7 +3483,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -3507,7 +3491,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -3515,7 +3499,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -3523,7 +3507,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -3531,7 +3515,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -3539,7 +3523,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -4231,13 +4215,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175CB2A-3F08-4AF9-8D7A-6541E4064452}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4245,19 +4229,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>1.33</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-2.2058823529411783E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -4265,7 +4245,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -4273,7 +4253,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -4281,7 +4261,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -4289,7 +4269,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -4297,7 +4277,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -4305,7 +4285,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -4313,7 +4293,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -4321,7 +4301,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -4329,7 +4309,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -4337,7 +4317,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -4345,7 +4325,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -4353,7 +4333,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -4361,7 +4341,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -5050,13 +5030,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9275F5-18DC-41FA-B43E-C5F46FABD55D}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5064,19 +5044,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>18.05</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>8.3798882681565441E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -5084,7 +5060,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -5092,7 +5068,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -5100,7 +5076,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -5108,7 +5084,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -5116,7 +5092,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -5124,7 +5100,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -5132,7 +5108,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -5140,7 +5116,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -5148,7 +5124,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -5156,7 +5132,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -5164,7 +5140,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -5172,7 +5148,7 @@
         <v>16.86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -5180,7 +5156,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -5869,13 +5845,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5918EF-22EA-49C6-9E21-84FCC67B5FD9}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5883,19 +5859,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>1.05</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-1.8691588785046745E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -5903,7 +5875,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -5911,7 +5883,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -5919,7 +5891,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -5927,7 +5899,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -5935,7 +5907,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -5943,7 +5915,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -5951,7 +5923,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -5959,7 +5931,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -5967,7 +5939,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -5975,7 +5947,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -5983,7 +5955,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -5991,7 +5963,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -5999,7 +5971,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -6691,13 +6663,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC94BE6-C402-448F-A880-79E48C5A042E}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6705,19 +6677,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>3.31</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-3.2163742690058443E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -6725,7 +6693,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -6733,7 +6701,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -6741,7 +6709,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -6749,7 +6717,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -6757,7 +6725,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -6765,7 +6733,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -6773,7 +6741,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -6781,7 +6749,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -6789,7 +6757,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -6797,7 +6765,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -6805,7 +6773,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -6813,7 +6781,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -6821,7 +6789,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -7516,13 +7484,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689700E1-C502-4B94-A535-2882F5118C0E}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -7530,19 +7498,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>1.21</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-8.1967213114754172E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -7550,7 +7514,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -7558,7 +7522,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -7566,7 +7530,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -7574,7 +7538,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -7582,7 +7546,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -7590,7 +7554,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -7598,7 +7562,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -7606,7 +7570,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -7614,7 +7578,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -7622,7 +7586,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -7630,7 +7594,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -7638,7 +7602,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -7646,7 +7610,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -8338,13 +8302,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BD2CAE-897C-4780-A35C-524978106FA3}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -8352,19 +8316,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>8.52</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-4.6728971962617903E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -8372,7 +8332,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -8380,7 +8340,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -8388,7 +8348,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -8396,7 +8356,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -8404,7 +8364,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -8412,7 +8372,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -8420,7 +8380,7 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -8428,7 +8388,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -8436,7 +8396,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -8444,7 +8404,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -8452,7 +8412,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -8460,7 +8420,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -8468,7 +8428,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
@@ -9160,13 +9120,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA091F97-7CC1-486C-B69E-3EEC5C0A3062}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9174,19 +9134,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>44046</v>
       </c>
       <c r="B2">
         <v>19.07</v>
       </c>
-      <c r="C2">
-        <f>(B2-B3)/B3</f>
-        <v>-1.650335224342446E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>44042</v>
       </c>
@@ -9194,7 +9150,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44041</v>
       </c>
@@ -9202,7 +9158,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44040</v>
       </c>
@@ -9210,7 +9166,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44039</v>
       </c>
@@ -9218,7 +9174,7 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44036</v>
       </c>
@@ -9226,7 +9182,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44035</v>
       </c>
@@ -9234,7 +9190,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44034</v>
       </c>
@@ -9242,7 +9198,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44033</v>
       </c>
@@ -9250,7 +9206,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44032</v>
       </c>
@@ -9258,7 +9214,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44029</v>
       </c>
@@ -9266,7 +9222,7 @@
         <v>20.56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>44028</v>
       </c>
@@ -9274,7 +9230,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>44027</v>
       </c>
@@ -9282,7 +9238,7 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>44026</v>
       </c>
@@ -9290,7 +9246,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>44025</v>
       </c>
